--- a/archivos_ejemplo/milikan.xlsx
+++ b/archivos_ejemplo/milikan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newtonis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newtonis\Documents\GitHub\EjemplosElectrotecnia\archivos_ejemplo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BBF58BD-5290-4023-823E-D6C0348809FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5C6A23-0515-4ED4-B1CA-A58E730BEDEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="11385" xr2:uid="{7D29619C-8F8A-438E-B8B7-87C6FEC35DDB}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
   <si>
     <t>#</t>
   </si>
@@ -111,7 +111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE06666"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -153,6 +153,9 @@
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -477,55 +480,55 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="Q16" sqref="E7:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -533,49 +536,49 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>86</v>
       </c>
-      <c r="C2" s="2">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="5">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
         <v>5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="5">
         <v>5.63</v>
       </c>
-      <c r="F2" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="F2" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="6">
         <v>2.0799999999999998E-3</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
         <v>3.6999999999999999E-4</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="6">
         <v>1.31E-5</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="6">
         <v>1.95E-6</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="6">
         <v>3.47E-8</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="6">
         <v>1.4500000000000001E-17</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="6">
         <v>8.4200000000000003E-19</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="5">
         <v>90.37</v>
       </c>
       <c r="P2" s="2">
@@ -583,49 +586,49 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
         <v>72</v>
       </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
         <v>4</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="5">
         <v>6.65</v>
       </c>
-      <c r="F3" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="6">
         <v>1.67E-3</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
         <v>2.5099999999999998E-4</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="6">
         <v>7.5399999999999998E-6</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="6">
         <v>1.61E-6</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="6">
         <v>2.4100000000000001E-8</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="6">
         <v>9.6399999999999995E-18</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="6">
         <v>5.1100000000000002E-19</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="5">
         <v>60.17</v>
       </c>
       <c r="P3" s="2">
@@ -633,49 +636,49 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>70</v>
       </c>
-      <c r="C4" s="4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
         <v>3</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>4.8</v>
       </c>
-      <c r="F4" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="6">
         <v>1.25E-3</v>
       </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
         <v>2.5999999999999998E-4</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="6">
         <v>1.0900000000000001E-5</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>1.64E-6</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <v>3.4100000000000001E-8</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="6">
         <v>1.05E-17</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="6">
         <v>7.2199999999999999E-19</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="5">
         <v>65.55</v>
       </c>
       <c r="P4" s="2">
@@ -683,49 +686,49 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>81</v>
       </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5">
         <v>3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>4.5</v>
       </c>
-      <c r="F5" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="6">
         <v>1.25E-3</v>
       </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
         <v>2.7799999999999998E-4</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6">
         <v>1.2300000000000001E-5</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <v>1.6899999999999999E-6</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>3.7599999999999999E-8</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="6">
         <v>1.0000000000000001E-17</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="6">
         <v>7.1100000000000001E-19</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="5">
         <v>62.41</v>
       </c>
       <c r="P5" s="2">
@@ -733,49 +736,49 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>62</v>
       </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <v>5.41</v>
       </c>
-      <c r="F6" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="6">
         <v>1.25E-3</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
         <v>2.31E-4</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="6">
         <v>8.5399999999999996E-6</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="6">
         <v>1.5400000000000001E-6</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="6">
         <v>2.85E-8</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="6">
         <v>9.9100000000000004E-18</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="6">
         <v>6.3600000000000002E-19</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="5">
         <v>61.85</v>
       </c>
       <c r="P6" s="2">
@@ -783,49 +786,49 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>60</v>
       </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <v>4.95</v>
       </c>
-      <c r="F7" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="6">
         <v>1.25E-3</v>
       </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
         <v>2.5300000000000002E-4</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="6">
         <v>1.0200000000000001E-5</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="6">
         <v>1.61E-6</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="6">
         <v>3.2600000000000001E-8</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="6">
         <v>1.1699999999999999E-17</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="6">
         <v>8.0899999999999999E-19</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="5">
         <v>73.02</v>
       </c>
       <c r="P7" s="2">
@@ -833,49 +836,49 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>142</v>
       </c>
-      <c r="C8" s="2">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
         <v>1.34</v>
       </c>
-      <c r="F8" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="6">
         <v>8.3299999999999997E-4</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
         <v>6.2200000000000005E-4</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="6">
         <v>9.2800000000000006E-5</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="6">
         <v>2.5299999999999999E-6</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="6">
         <v>1.8900000000000001E-7</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="6">
         <v>1.9099999999999999E-17</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="6">
         <v>4.2900000000000003E-18</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="5">
         <v>119.25</v>
       </c>
       <c r="P8" s="2">
@@ -883,49 +886,49 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <v>121</v>
       </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="5">
         <v>5.55</v>
       </c>
-      <c r="F9" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="6">
         <v>4.17E-4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
         <v>7.5099999999999996E-5</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6">
         <v>2.7099999999999999E-6</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="6">
         <v>8.7899999999999997E-7</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="6">
         <v>1.5799999999999999E-8</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="6">
         <v>9.4000000000000001E-19</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="6">
         <v>5.3200000000000003E-20</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="5">
         <v>5.87</v>
       </c>
       <c r="P9" s="2">
@@ -933,49 +936,49 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>85</v>
       </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
         <v>3</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>2.72</v>
       </c>
-      <c r="F10" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="6">
         <v>1.25E-3</v>
       </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="6">
         <v>3.3800000000000002E-5</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <v>2.17E-6</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="6">
         <v>7.9899999999999994E-8</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="6">
         <v>2.0300000000000001E-17</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="6">
         <v>2.2900000000000001E-18</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="5">
         <v>126.55</v>
       </c>
       <c r="P10" s="2">

--- a/archivos_ejemplo/milikan.xlsx
+++ b/archivos_ejemplo/milikan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newtonis\Documents\GitHub\EjemplosElectrotecnia\archivos_ejemplo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5C6A23-0515-4ED4-B1CA-A58E730BEDEE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81B35198-846C-421C-952C-10F0B9004CAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="28800" windowHeight="11385" xr2:uid="{7D29619C-8F8A-438E-B8B7-87C6FEC35DDB}"/>
+    <workbookView xWindow="15" yWindow="2385" windowWidth="28800" windowHeight="11385" xr2:uid="{CCA1FBAD-5C3D-4137-927A-8F88DEDD8D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,17 +143,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -476,59 +467,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC33DD33-91E1-4AAF-8BC1-9B36C2CFA7E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E1FAC3-6176-49EE-9B6B-51A6D290FBE8}">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="E7:Q16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -536,49 +527,49 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <v>86</v>
       </c>
-      <c r="C2" s="5">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
         <v>5</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <v>5.63</v>
       </c>
-      <c r="F2" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="F2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="3">
         <v>2.0799999999999998E-3</v>
       </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
         <v>3.6999999999999999E-4</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="3">
         <v>1.31E-5</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="3">
         <v>1.95E-6</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="3">
         <v>3.47E-8</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="3">
         <v>1.4500000000000001E-17</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="3">
         <v>8.4200000000000003E-19</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="2">
         <v>90.37</v>
       </c>
       <c r="P2" s="2">
@@ -586,49 +577,49 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
         <v>72</v>
       </c>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
         <v>4</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="2">
         <v>6.65</v>
       </c>
-      <c r="F3" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G3" s="3">
         <v>1.67E-3</v>
       </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
         <v>2.5099999999999998E-4</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="3">
         <v>7.5399999999999998E-6</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="3">
         <v>1.61E-6</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="3">
         <v>2.4100000000000001E-8</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="3">
         <v>9.6399999999999995E-18</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="3">
         <v>5.1100000000000002E-19</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="2">
         <v>60.17</v>
       </c>
       <c r="P3" s="2">
@@ -636,49 +627,49 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>70</v>
       </c>
-      <c r="C4" s="5">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
         <v>3</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>4.8</v>
       </c>
-      <c r="F4" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="F4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="3">
         <v>1.25E-3</v>
       </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
         <v>2.5999999999999998E-4</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="3">
         <v>1.0900000000000001E-5</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="3">
         <v>1.64E-6</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="3">
         <v>3.4100000000000001E-8</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="3">
         <v>1.05E-17</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="3">
         <v>7.2199999999999999E-19</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="2">
         <v>65.55</v>
       </c>
       <c r="P4" s="2">
@@ -686,49 +677,49 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>81</v>
       </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>4.5</v>
       </c>
-      <c r="F5" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="F5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="3">
         <v>1.25E-3</v>
       </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
         <v>2.7799999999999998E-4</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <v>1.2300000000000001E-5</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <v>1.6899999999999999E-6</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="3">
         <v>3.7599999999999999E-8</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="3">
         <v>1.0000000000000001E-17</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="3">
         <v>7.1100000000000001E-19</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="2">
         <v>62.41</v>
       </c>
       <c r="P5" s="2">
@@ -736,49 +727,49 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>62</v>
       </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
         <v>3</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>5.41</v>
       </c>
-      <c r="F6" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="3">
         <v>1.25E-3</v>
       </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
         <v>2.31E-4</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="3">
         <v>8.5399999999999996E-6</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="3">
         <v>1.5400000000000001E-6</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="3">
         <v>2.85E-8</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="3">
         <v>9.9100000000000004E-18</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="3">
         <v>6.3600000000000002E-19</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="2">
         <v>61.85</v>
       </c>
       <c r="P6" s="2">
@@ -786,49 +777,49 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="2">
         <v>60</v>
       </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>4.95</v>
       </c>
-      <c r="F7" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="3">
         <v>1.25E-3</v>
       </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
         <v>2.5300000000000002E-4</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="3">
         <v>1.0200000000000001E-5</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="3">
         <v>1.61E-6</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="3">
         <v>3.2600000000000001E-8</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="3">
         <v>1.1699999999999999E-17</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="3">
         <v>8.0899999999999999E-19</v>
       </c>
-      <c r="O7" s="5">
+      <c r="O7" s="2">
         <v>73.02</v>
       </c>
       <c r="P7" s="2">
@@ -836,49 +827,49 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="2">
         <v>142</v>
       </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
         <v>1.34</v>
       </c>
-      <c r="F8" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="3">
         <v>8.3299999999999997E-4</v>
       </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>6.2200000000000005E-4</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>9.2800000000000006E-5</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="3">
         <v>2.5299999999999999E-6</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="3">
         <v>1.8900000000000001E-7</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="3">
         <v>1.9099999999999999E-17</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="3">
         <v>4.2900000000000003E-18</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="2">
         <v>119.25</v>
       </c>
       <c r="P8" s="2">
@@ -886,49 +877,49 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>121</v>
       </c>
-      <c r="C9" s="5">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>5.55</v>
       </c>
-      <c r="F9" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="F9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G9" s="3">
         <v>4.17E-4</v>
       </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>7.5099999999999996E-5</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="3">
         <v>2.7099999999999999E-6</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="3">
         <v>8.7899999999999997E-7</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="3">
         <v>1.5799999999999999E-8</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="3">
         <v>9.4000000000000001E-19</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="3">
         <v>5.3200000000000003E-20</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="2">
         <v>5.87</v>
       </c>
       <c r="P9" s="2">
@@ -936,49 +927,49 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <v>85</v>
       </c>
-      <c r="C10" s="5">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
         <v>3</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="2">
         <v>2.72</v>
       </c>
-      <c r="F10" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="F10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G10" s="3">
         <v>1.25E-3</v>
       </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="3">
         <v>3.3800000000000002E-5</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="3">
         <v>2.17E-6</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="3">
         <v>7.9899999999999994E-8</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="3">
         <v>2.0300000000000001E-17</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="3">
         <v>2.2900000000000001E-18</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="2">
         <v>126.55</v>
       </c>
       <c r="P10" s="2">

--- a/archivos_ejemplo/milikan.xlsx
+++ b/archivos_ejemplo/milikan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newtonis\Documents\GitHub\EjemplosElectrotecnia\archivos_ejemplo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81B35198-846C-421C-952C-10F0B9004CAD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C928FEDF-D854-4EEB-9E1E-64F2D1D3A779}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="2385" windowWidth="28800" windowHeight="11385" xr2:uid="{CCA1FBAD-5C3D-4137-927A-8F88DEDD8D59}"/>
+    <workbookView xWindow="105" yWindow="2385" windowWidth="28800" windowHeight="11385" xr2:uid="{CCA1FBAD-5C3D-4137-927A-8F88DEDD8D59}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
-  <si>
-    <t>#</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Potencial (V)</t>
   </si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>Round q(C-delta e)</t>
+  </si>
+  <si>
+    <t>medición</t>
   </si>
 </sst>
 </file>
@@ -470,60 +470,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E1FAC3-6176-49EE-9B6B-51A6D290FBE8}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/archivos_ejemplo/milikan.xlsx
+++ b/archivos_ejemplo/milikan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newtonis\Documents\GitHub\EjemplosElectrotecnia\archivos_ejemplo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C928FEDF-D854-4EEB-9E1E-64F2D1D3A779}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0E5FF61-0CAD-419D-AC5A-72E513DF4BFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="2385" windowWidth="28800" windowHeight="11385" xr2:uid="{CCA1FBAD-5C3D-4137-927A-8F88DEDD8D59}"/>
+    <workbookView xWindow="105" yWindow="2385" windowWidth="28800" windowHeight="11385" xr2:uid="{C0CD22D1-F862-4022-8ED1-43A678A24693}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
+    <t>#</t>
+  </si>
+  <si>
     <t>Potencial (V)</t>
   </si>
   <si>
@@ -78,9 +81,6 @@
   </si>
   <si>
     <t>Round q(C-delta e)</t>
-  </si>
-  <si>
-    <t>medición</t>
   </si>
 </sst>
 </file>
@@ -111,7 +111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFE06666"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,10 +143,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -467,63 +473,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E1FAC3-6176-49EE-9B6B-51A6D290FBE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AA6553-0795-4D42-892A-3416229736A7}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -627,49 +631,49 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>70</v>
       </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>4.8</v>
       </c>
       <c r="F4" s="2">
         <v>0.2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="5">
         <v>1.25E-3</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
         <v>2.5999999999999998E-4</v>
       </c>
       <c r="J4" s="3">
         <v>1.0900000000000001E-5</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="5">
         <v>1.64E-6</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="5">
         <v>3.4100000000000001E-8</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="5">
         <v>1.05E-17</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="5">
         <v>7.2199999999999999E-19</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="4">
         <v>65.55</v>
       </c>
       <c r="P4" s="2">
@@ -677,49 +681,49 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>81</v>
       </c>
-      <c r="C5" s="2">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
         <v>3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>4.5</v>
       </c>
       <c r="F5" s="2">
         <v>0.2</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="5">
         <v>1.25E-3</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
         <v>2.7799999999999998E-4</v>
       </c>
       <c r="J5" s="3">
         <v>1.2300000000000001E-5</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="5">
         <v>1.6899999999999999E-6</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="5">
         <v>3.7599999999999999E-8</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="5">
         <v>1.0000000000000001E-17</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="5">
         <v>7.1100000000000001E-19</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="4">
         <v>62.41</v>
       </c>
       <c r="P5" s="2">
@@ -927,49 +931,49 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>85</v>
       </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>2.72</v>
       </c>
       <c r="F10" s="2">
         <v>0.2</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="5">
         <v>1.25E-3</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
         <v>4.6000000000000001E-4</v>
       </c>
       <c r="J10" s="3">
         <v>3.3800000000000002E-5</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="5">
         <v>2.17E-6</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="5">
         <v>7.9899999999999994E-8</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="5">
         <v>2.0300000000000001E-17</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="5">
         <v>2.2900000000000001E-18</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="4">
         <v>126.55</v>
       </c>
       <c r="P10" s="2">

--- a/archivos_ejemplo/milikan.xlsx
+++ b/archivos_ejemplo/milikan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newtonis\Documents\GitHub\EjemplosElectrotecnia\archivos_ejemplo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0E5FF61-0CAD-419D-AC5A-72E513DF4BFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E31D9D-4CC2-4B02-8984-14B48538A4A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="105" yWindow="2385" windowWidth="28800" windowHeight="11385" xr2:uid="{C0CD22D1-F862-4022-8ED1-43A678A24693}"/>
   </bookViews>
@@ -476,7 +476,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AA6553-0795-4D42-892A-3416229736A7}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -532,102 +534,102 @@
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2">
-        <v>5.63</v>
+        <v>4.95</v>
       </c>
       <c r="F2" s="2">
         <v>0.2</v>
       </c>
       <c r="G2" s="3">
-        <v>2.0799999999999998E-3</v>
+        <v>1.25E-3</v>
       </c>
       <c r="H2" s="3">
         <v>0</v>
       </c>
       <c r="I2" s="3">
-        <v>3.6999999999999999E-4</v>
+        <v>2.5300000000000002E-4</v>
       </c>
       <c r="J2" s="3">
-        <v>1.31E-5</v>
+        <v>1.0200000000000001E-5</v>
       </c>
       <c r="K2" s="3">
-        <v>1.95E-6</v>
+        <v>1.61E-6</v>
       </c>
       <c r="L2" s="3">
-        <v>3.47E-8</v>
+        <v>3.2600000000000001E-8</v>
       </c>
       <c r="M2" s="3">
-        <v>1.4500000000000001E-17</v>
+        <v>1.1699999999999999E-17</v>
       </c>
       <c r="N2" s="3">
-        <v>8.4200000000000003E-19</v>
+        <v>8.0899999999999999E-19</v>
       </c>
       <c r="O2" s="2">
-        <v>90.37</v>
+        <v>73.02</v>
       </c>
       <c r="P2" s="2">
-        <v>85.12</v>
+        <v>67.97</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2">
-        <v>6.65</v>
+        <v>5.41</v>
       </c>
       <c r="F3" s="2">
         <v>0.2</v>
       </c>
       <c r="G3" s="3">
-        <v>1.67E-3</v>
+        <v>1.25E-3</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
       </c>
       <c r="I3" s="3">
-        <v>2.5099999999999998E-4</v>
+        <v>2.31E-4</v>
       </c>
       <c r="J3" s="3">
-        <v>7.5399999999999998E-6</v>
+        <v>8.5399999999999996E-6</v>
       </c>
       <c r="K3" s="3">
-        <v>1.61E-6</v>
+        <v>1.5400000000000001E-6</v>
       </c>
       <c r="L3" s="3">
-        <v>2.4100000000000001E-8</v>
+        <v>2.85E-8</v>
       </c>
       <c r="M3" s="3">
-        <v>9.6399999999999995E-18</v>
+        <v>9.9100000000000004E-18</v>
       </c>
       <c r="N3" s="3">
-        <v>5.1100000000000002E-19</v>
+        <v>6.3600000000000002E-19</v>
       </c>
       <c r="O3" s="2">
-        <v>60.17</v>
+        <v>61.85</v>
       </c>
       <c r="P3" s="2">
-        <v>56.98</v>
+        <v>57.88</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -681,606 +683,609 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>72</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="E5" s="2">
+        <v>6.65</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1.67E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2.5099999999999998E-4</v>
+      </c>
+      <c r="J5" s="3">
+        <v>7.5399999999999998E-6</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.61E-6</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2.4100000000000001E-8</v>
+      </c>
+      <c r="M5" s="3">
+        <v>9.6399999999999995E-18</v>
+      </c>
+      <c r="N5" s="3">
+        <v>5.1100000000000002E-19</v>
+      </c>
+      <c r="O5" s="2">
+        <v>60.17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>56.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
         <v>81</v>
       </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
         <v>3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E6" s="4">
         <v>4.5</v>
       </c>
-      <c r="F5" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="5">
         <v>1.25E-3</v>
       </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
         <v>2.7799999999999998E-4</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J6" s="3">
         <v>1.2300000000000001E-5</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K6" s="5">
         <v>1.6899999999999999E-6</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L6" s="5">
         <v>3.7599999999999999E-8</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M6" s="5">
         <v>1.0000000000000001E-17</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N6" s="5">
         <v>7.1100000000000001E-19</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O6" s="4">
         <v>62.41</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P6" s="2">
         <v>57.97</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>62</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>85</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
-        <v>5.41</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="E7" s="4">
+        <v>2.72</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G7" s="5">
         <v>1.25E-3</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>2.31E-4</v>
-      </c>
-      <c r="J6" s="3">
-        <v>8.5399999999999996E-6</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1.5400000000000001E-6</v>
-      </c>
-      <c r="L6" s="3">
-        <v>2.85E-8</v>
-      </c>
-      <c r="M6" s="3">
-        <v>9.9100000000000004E-18</v>
-      </c>
-      <c r="N6" s="3">
-        <v>6.3600000000000002E-19</v>
-      </c>
-      <c r="O6" s="2">
-        <v>61.85</v>
-      </c>
-      <c r="P6" s="2">
-        <v>57.88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>60</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>4.95</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1.25E-3</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>2.5300000000000002E-4</v>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>4.6000000000000001E-4</v>
       </c>
       <c r="J7" s="3">
-        <v>1.0200000000000001E-5</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1.61E-6</v>
-      </c>
-      <c r="L7" s="3">
-        <v>3.2600000000000001E-8</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1.1699999999999999E-17</v>
-      </c>
-      <c r="N7" s="3">
-        <v>8.0899999999999999E-19</v>
-      </c>
-      <c r="O7" s="2">
-        <v>73.02</v>
+        <v>3.3800000000000002E-5</v>
+      </c>
+      <c r="K7" s="5">
+        <v>2.17E-6</v>
+      </c>
+      <c r="L7" s="5">
+        <v>7.9899999999999994E-8</v>
+      </c>
+      <c r="M7" s="5">
+        <v>2.0300000000000001E-17</v>
+      </c>
+      <c r="N7" s="5">
+        <v>2.2900000000000001E-18</v>
+      </c>
+      <c r="O7" s="4">
+        <v>126.55</v>
       </c>
       <c r="P7" s="2">
-        <v>67.97</v>
+        <v>112.28</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2">
-        <v>1.34</v>
+        <v>5.63</v>
       </c>
       <c r="F8" s="2">
         <v>0.2</v>
       </c>
       <c r="G8" s="3">
-        <v>8.3299999999999997E-4</v>
+        <v>2.0799999999999998E-3</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>6.2200000000000005E-4</v>
+        <v>3.6999999999999999E-4</v>
       </c>
       <c r="J8" s="3">
-        <v>9.2800000000000006E-5</v>
+        <v>1.31E-5</v>
       </c>
       <c r="K8" s="3">
-        <v>2.5299999999999999E-6</v>
+        <v>1.95E-6</v>
       </c>
       <c r="L8" s="3">
-        <v>1.8900000000000001E-7</v>
+        <v>3.47E-8</v>
       </c>
       <c r="M8" s="3">
-        <v>1.9099999999999999E-17</v>
+        <v>1.4500000000000001E-17</v>
       </c>
       <c r="N8" s="3">
-        <v>4.2900000000000003E-18</v>
+        <v>8.4200000000000003E-19</v>
       </c>
       <c r="O8" s="2">
-        <v>119.25</v>
+        <v>90.37</v>
       </c>
       <c r="P8" s="2">
-        <v>92.5</v>
+        <v>85.12</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" s="2">
-        <v>5.55</v>
+        <v>5.07</v>
       </c>
       <c r="F9" s="2">
         <v>0.2</v>
       </c>
       <c r="G9" s="3">
-        <v>4.17E-4</v>
+        <v>1.67E-3</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>7.5099999999999996E-5</v>
+        <v>3.2899999999999997E-4</v>
       </c>
       <c r="J9" s="3">
-        <v>2.7099999999999999E-6</v>
+        <v>1.2999999999999999E-5</v>
       </c>
       <c r="K9" s="3">
-        <v>8.7899999999999997E-7</v>
+        <v>1.84E-6</v>
       </c>
       <c r="L9" s="3">
-        <v>1.5799999999999999E-8</v>
+        <v>3.6300000000000001E-8</v>
       </c>
       <c r="M9" s="3">
-        <v>9.4000000000000001E-19</v>
+        <v>1.0900000000000001E-17</v>
       </c>
       <c r="N9" s="3">
-        <v>5.3200000000000003E-20</v>
+        <v>6.8099999999999998E-19</v>
       </c>
       <c r="O9" s="2">
-        <v>5.87</v>
+        <v>67.790000000000006</v>
       </c>
       <c r="P9" s="2">
-        <v>5.54</v>
+        <v>63.54</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>85</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="A10" s="2">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <v>112</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
         <v>3</v>
       </c>
-      <c r="E10" s="4">
-        <v>2.72</v>
+      <c r="E10" s="2">
+        <v>2.76</v>
       </c>
       <c r="F10" s="2">
         <v>0.2</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <v>1.25E-3</v>
       </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>4.6000000000000001E-4</v>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4.5300000000000001E-4</v>
       </c>
       <c r="J10" s="3">
-        <v>3.3800000000000002E-5</v>
-      </c>
-      <c r="K10" s="5">
-        <v>2.17E-6</v>
-      </c>
-      <c r="L10" s="5">
-        <v>7.9899999999999994E-8</v>
-      </c>
-      <c r="M10" s="5">
-        <v>2.0300000000000001E-17</v>
-      </c>
-      <c r="N10" s="5">
-        <v>2.2900000000000001E-18</v>
-      </c>
-      <c r="O10" s="4">
-        <v>126.55</v>
+        <v>3.2799999999999998E-5</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2.1600000000000001E-6</v>
+      </c>
+      <c r="L10" s="3">
+        <v>7.8199999999999999E-8</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1.5100000000000001E-17</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1.66E-18</v>
+      </c>
+      <c r="O10" s="2">
+        <v>93.96</v>
       </c>
       <c r="P10" s="2">
-        <v>112.28</v>
+        <v>83.61</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>3.32</v>
+        <v>7.45</v>
       </c>
       <c r="F11" s="2">
         <v>0.2</v>
       </c>
       <c r="G11" s="3">
-        <v>1.25E-3</v>
+        <v>4.17E-4</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
       </c>
       <c r="I11" s="3">
-        <v>3.77E-4</v>
+        <v>5.5899999999999997E-5</v>
       </c>
       <c r="J11" s="3">
-        <v>2.27E-5</v>
+        <v>1.5E-6</v>
       </c>
       <c r="K11" s="3">
-        <v>1.9700000000000002E-6</v>
+        <v>7.5899999999999995E-7</v>
       </c>
       <c r="L11" s="3">
-        <v>5.9300000000000002E-8</v>
+        <v>1.02E-8</v>
       </c>
       <c r="M11" s="3">
-        <v>9.1899999999999996E-18</v>
+        <v>6.4200000000000003E-19</v>
       </c>
       <c r="N11" s="3">
-        <v>8.4099999999999999E-19</v>
+        <v>2.8199999999999997E-20</v>
       </c>
       <c r="O11" s="2">
-        <v>57.39</v>
+        <v>4.01</v>
       </c>
       <c r="P11" s="2">
-        <v>52.14</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
       </c>
       <c r="D12" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2">
-        <v>5.07</v>
+        <v>5.55</v>
       </c>
       <c r="F12" s="2">
         <v>0.2</v>
       </c>
       <c r="G12" s="3">
-        <v>1.67E-3</v>
+        <v>4.17E-4</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>3.2899999999999997E-4</v>
+        <v>7.5099999999999996E-5</v>
       </c>
       <c r="J12" s="3">
-        <v>1.2999999999999999E-5</v>
+        <v>2.7099999999999999E-6</v>
       </c>
       <c r="K12" s="3">
-        <v>1.84E-6</v>
+        <v>8.7899999999999997E-7</v>
       </c>
       <c r="L12" s="3">
-        <v>3.6300000000000001E-8</v>
+        <v>1.5799999999999999E-8</v>
       </c>
       <c r="M12" s="3">
-        <v>1.0900000000000001E-17</v>
+        <v>9.4000000000000001E-19</v>
       </c>
       <c r="N12" s="3">
-        <v>6.8099999999999998E-19</v>
+        <v>5.3200000000000003E-20</v>
       </c>
       <c r="O12" s="2">
-        <v>67.790000000000006</v>
+        <v>5.87</v>
       </c>
       <c r="P12" s="2">
-        <v>63.54</v>
+        <v>5.54</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
       </c>
       <c r="D13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="2">
-        <v>1.88</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F13" s="2">
         <v>0.2</v>
       </c>
       <c r="G13" s="3">
-        <v>8.3299999999999997E-4</v>
+        <v>1.67E-3</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
       </c>
       <c r="I13" s="3">
-        <v>4.4299999999999998E-4</v>
+        <v>7.2499999999999995E-4</v>
       </c>
       <c r="J13" s="3">
-        <v>4.7200000000000002E-5</v>
+        <v>6.3E-5</v>
       </c>
       <c r="K13" s="3">
-        <v>2.1399999999999998E-6</v>
+        <v>2.7300000000000001E-6</v>
       </c>
       <c r="L13" s="3">
-        <v>1.14E-7</v>
+        <v>1.1899999999999999E-7</v>
       </c>
       <c r="M13" s="3">
-        <v>9.3300000000000004E-18</v>
+        <v>2.5299999999999999E-17</v>
       </c>
       <c r="N13" s="3">
-        <v>1.49E-18</v>
+        <v>3.3200000000000001E-18</v>
       </c>
       <c r="O13" s="2">
-        <v>58.23</v>
+        <v>157.77000000000001</v>
       </c>
       <c r="P13" s="2">
-        <v>48.91</v>
+        <v>137.06</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2">
         <v>2</v>
       </c>
       <c r="D14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14" s="2">
-        <v>2.2999999999999998</v>
+        <v>3.32</v>
       </c>
       <c r="F14" s="2">
         <v>0.2</v>
       </c>
       <c r="G14" s="3">
-        <v>1.67E-3</v>
+        <v>1.25E-3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>7.2499999999999995E-4</v>
+        <v>3.77E-4</v>
       </c>
       <c r="J14" s="3">
-        <v>6.3E-5</v>
+        <v>2.27E-5</v>
       </c>
       <c r="K14" s="3">
-        <v>2.7300000000000001E-6</v>
+        <v>1.9700000000000002E-6</v>
       </c>
       <c r="L14" s="3">
-        <v>1.1899999999999999E-7</v>
+        <v>5.9300000000000002E-8</v>
       </c>
       <c r="M14" s="3">
-        <v>2.5299999999999999E-17</v>
+        <v>9.1899999999999996E-18</v>
       </c>
       <c r="N14" s="3">
-        <v>3.3200000000000001E-18</v>
+        <v>8.4099999999999999E-19</v>
       </c>
       <c r="O14" s="2">
-        <v>157.77000000000001</v>
+        <v>57.39</v>
       </c>
       <c r="P14" s="2">
-        <v>137.06</v>
+        <v>52.14</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
       </c>
       <c r="D15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2">
-        <v>2.76</v>
+        <v>1.34</v>
       </c>
       <c r="F15" s="2">
         <v>0.2</v>
       </c>
       <c r="G15" s="3">
-        <v>1.25E-3</v>
+        <v>8.3299999999999997E-4</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>4.5300000000000001E-4</v>
+        <v>6.2200000000000005E-4</v>
       </c>
       <c r="J15" s="3">
-        <v>3.2799999999999998E-5</v>
+        <v>9.2800000000000006E-5</v>
       </c>
       <c r="K15" s="3">
-        <v>2.1600000000000001E-6</v>
+        <v>2.5299999999999999E-6</v>
       </c>
       <c r="L15" s="3">
-        <v>7.8199999999999999E-8</v>
+        <v>1.8900000000000001E-7</v>
       </c>
       <c r="M15" s="3">
-        <v>1.5100000000000001E-17</v>
+        <v>1.9099999999999999E-17</v>
       </c>
       <c r="N15" s="3">
-        <v>1.66E-18</v>
+        <v>4.2900000000000003E-18</v>
       </c>
       <c r="O15" s="2">
-        <v>93.96</v>
+        <v>119.25</v>
       </c>
       <c r="P15" s="2">
-        <v>83.61</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2">
         <v>2</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2">
-        <v>7.45</v>
+        <v>1.88</v>
       </c>
       <c r="F16" s="2">
         <v>0.2</v>
       </c>
       <c r="G16" s="3">
-        <v>4.17E-4</v>
+        <v>8.3299999999999997E-4</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
       </c>
       <c r="I16" s="3">
-        <v>5.5899999999999997E-5</v>
+        <v>4.4299999999999998E-4</v>
       </c>
       <c r="J16" s="3">
-        <v>1.5E-6</v>
+        <v>4.7200000000000002E-5</v>
       </c>
       <c r="K16" s="3">
-        <v>7.5899999999999995E-7</v>
+        <v>2.1399999999999998E-6</v>
       </c>
       <c r="L16" s="3">
-        <v>1.02E-8</v>
+        <v>1.14E-7</v>
       </c>
       <c r="M16" s="3">
-        <v>6.4200000000000003E-19</v>
+        <v>9.3300000000000004E-18</v>
       </c>
       <c r="N16" s="3">
-        <v>2.8199999999999997E-20</v>
+        <v>1.49E-18</v>
       </c>
       <c r="O16" s="2">
-        <v>4.01</v>
+        <v>58.23</v>
       </c>
       <c r="P16" s="2">
-        <v>3.83</v>
+        <v>48.91</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P16">
+    <sortCondition ref="B2:B16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
